--- a/pollyServer/app/RAG/eval-ds/output/llama3.211b-t5-1811.xlsx
+++ b/pollyServer/app/RAG/eval-ds/output/llama3.211b-t5-1811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940A5F9-9FFA-F248-B03A-CE829F67ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18486EC6-A215-DE4B-85A3-DCB0B45F8FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,13 +571,13 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -618,7 +616,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2">
@@ -634,7 +632,7 @@
         <v>0.96645254200759634</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -670,7 +668,7 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4">
@@ -696,7 +694,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E5">
@@ -722,7 +720,7 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E6">
@@ -748,7 +746,7 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E7">
@@ -774,7 +772,7 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -800,7 +798,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E9">
@@ -826,7 +824,7 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E10">
@@ -852,7 +850,7 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E11">
@@ -878,7 +876,7 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E12">
@@ -904,7 +902,7 @@
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E13">

--- a/pollyServer/app/RAG/eval-ds/output/llama3.211b-t5-1811.xlsx
+++ b/pollyServer/app/RAG/eval-ds/output/llama3.211b-t5-1811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18486EC6-A215-DE4B-85A3-DCB0B45F8FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD270BBF-6C8B-D140-87B9-80AB684F674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9460" yWindow="500" windowWidth="18740" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,13 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,14 +569,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -616,7 +617,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
@@ -642,7 +643,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3">
@@ -668,7 +669,7 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
@@ -694,7 +695,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
@@ -720,7 +721,7 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
@@ -746,7 +747,7 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7">
@@ -772,7 +773,7 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -798,7 +799,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9">
@@ -824,7 +825,7 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
       <c r="E10">
@@ -850,7 +851,7 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11">
@@ -876,14 +877,14 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0.66666666666666663</v>
@@ -902,14 +903,14 @@
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -925,7 +926,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" ref="F14:H14" si="0">AVERAGE(F2:F13)</f>
-        <v>0.57666666666666666</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
